--- a/posesiones/1381280.xlsx
+++ b/posesiones/1381280.xlsx
@@ -1853,10 +1853,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2047,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>16</v>
@@ -2100,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2150,7 +2150,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>24</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2253,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>11</v>
@@ -2303,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R15">
         <v>22</v>
@@ -2503,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R16">
         <v>18</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2653,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2703,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R20">
         <v>17</v>
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2806,7 +2806,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R22">
         <v>3</v>
@@ -2856,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2906,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R24">
         <v>10</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3009,7 +3009,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R26">
         <v>17</v>
@@ -3059,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3203,7 +3203,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R30">
         <v>13</v>
@@ -3256,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3306,7 +3306,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R32">
         <v>10</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3506,7 +3506,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R36">
         <v>15</v>
@@ -3559,7 +3559,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R37">
         <v>13</v>
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3662,7 +3662,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R39">
         <v>15</v>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3765,7 +3765,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R41">
         <v>19</v>
@@ -3818,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3865,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3959,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4053,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4150,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R49">
         <v>12</v>
@@ -4203,7 +4203,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R50">
         <v>12</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4297,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4347,7 +4347,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R53">
         <v>13</v>
@@ -4400,7 +4400,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R54">
         <v>14</v>
@@ -4453,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4503,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R56">
         <v>16</v>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R58">
         <v>11</v>
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4706,7 +4706,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R60">
         <v>13</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4806,7 +4806,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R62">
         <v>15</v>
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5000,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5047,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5094,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5144,7 +5144,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R69">
         <v>25</v>
@@ -5197,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5244,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5294,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5344,7 +5344,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R73">
         <v>22</v>
@@ -5394,7 +5394,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5444,7 +5444,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R75">
         <v>5</v>
@@ -5491,7 +5491,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5541,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R77">
         <v>18</v>
@@ -5594,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5644,7 +5644,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R79">
         <v>13</v>
@@ -5697,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5747,7 +5747,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R81">
         <v>17</v>
@@ -5800,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5850,7 +5850,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R83">
         <v>16</v>
@@ -5903,7 +5903,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R84">
         <v>10</v>
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6000,7 +6000,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6047,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6191,7 +6191,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R90">
         <v>0</v>
@@ -6244,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6291,7 +6291,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6341,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6391,7 +6391,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R94">
         <v>26</v>
@@ -6444,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6494,7 +6494,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R96">
         <v>15</v>
@@ -6547,7 +6547,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R97">
         <v>22</v>
@@ -6597,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6644,7 +6644,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6738,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6785,7 +6785,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6832,7 +6832,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6879,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6929,7 +6929,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R105">
         <v>16</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7029,7 +7029,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7079,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7129,7 +7129,7 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R109">
         <v>10</v>
@@ -7179,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7229,7 +7229,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R111">
         <v>15</v>
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7326,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7373,7 +7373,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7420,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7470,7 +7470,7 @@
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R116">
         <v>19</v>
@@ -7520,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7567,7 +7567,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7614,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7708,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7755,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7849,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7896,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7946,7 +7946,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R126">
         <v>21</v>
@@ -7990,10 +7990,10 @@
         <v>1</v>
       </c>
       <c r="P127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q127">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8040,7 +8040,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8087,7 +8087,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8181,7 +8181,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8275,7 +8275,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8316,10 +8316,10 @@
         <v>1</v>
       </c>
       <c r="P134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q134">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8369,7 +8369,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R135">
         <v>11</v>
@@ -8422,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8469,7 +8469,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8519,7 +8519,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8569,7 +8569,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R139">
         <v>21</v>
@@ -8622,7 +8622,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8672,7 +8672,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R141">
         <v>25</v>
@@ -8722,7 +8722,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8772,7 +8772,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R143">
         <v>26</v>
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8875,7 +8875,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R145">
         <v>5</v>
@@ -8925,7 +8925,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8975,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R148">
         <v>17</v>
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9125,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9175,7 +9175,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R151">
         <v>21</v>
@@ -9225,7 +9225,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9319,7 +9319,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9366,7 +9366,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9460,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9507,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9554,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9604,7 +9604,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R160">
         <v>0</v>
@@ -9657,7 +9657,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R161">
         <v>17</v>
@@ -9707,7 +9707,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9754,7 +9754,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9804,7 +9804,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9854,7 +9854,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R165">
         <v>31</v>
@@ -9904,7 +9904,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10004,7 +10004,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R168">
         <v>5</v>
@@ -10054,7 +10054,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10101,7 +10101,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10151,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10245,7 +10245,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10292,7 +10292,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10339,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10386,7 +10386,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10436,7 +10436,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R177">
         <v>14</v>
@@ -10489,7 +10489,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10539,7 +10539,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R179">
         <v>9</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10642,7 +10642,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R181">
         <v>15</v>
@@ -10692,7 +10692,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10742,7 +10742,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R183">
         <v>14</v>
@@ -10795,7 +10795,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10845,7 +10845,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R185">
         <v>14</v>
@@ -10895,7 +10895,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10939,7 +10939,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10989,7 +10989,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R188">
         <v>2</v>
@@ -11039,7 +11039,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11089,7 +11089,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R190">
         <v>5</v>
@@ -11139,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11186,7 +11186,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11233,7 +11233,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11280,7 +11280,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11327,7 +11327,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11377,7 +11377,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R196">
         <v>13</v>
@@ -11430,7 +11430,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11477,7 +11477,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11524,7 +11524,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11574,7 +11574,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R200">
         <v>32</v>
@@ -11627,7 +11627,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11674,7 +11674,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11721,7 +11721,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11768,7 +11768,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11815,7 +11815,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11865,7 +11865,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11912,7 +11912,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11959,7 +11959,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12006,7 +12006,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12056,7 +12056,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R210">
         <v>18</v>
@@ -12109,7 +12109,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R211">
         <v>24</v>
@@ -12162,7 +12162,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12209,7 +12209,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12256,7 +12256,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12303,7 +12303,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12350,7 +12350,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12397,7 +12397,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12447,7 +12447,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R218">
         <v>19</v>
@@ -12500,7 +12500,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R219">
         <v>15</v>
@@ -12550,7 +12550,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12597,7 +12597,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12644,7 +12644,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12691,7 +12691,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12738,7 +12738,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12785,7 +12785,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12832,7 +12832,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12882,7 +12882,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R227">
         <v>0</v>
@@ -12935,7 +12935,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R228">
         <v>1</v>
@@ -12985,7 +12985,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13032,7 +13032,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13079,7 +13079,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13129,7 +13129,7 @@
         <v>1</v>
       </c>
       <c r="Q232">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R232">
         <v>4</v>
@@ -13182,7 +13182,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R233">
         <v>22</v>
@@ -13232,7 +13232,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13279,7 +13279,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13326,7 +13326,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13376,7 +13376,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R237">
         <v>27</v>
@@ -13429,7 +13429,7 @@
         <v>1</v>
       </c>
       <c r="Q238">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R238">
         <v>15</v>
@@ -13482,7 +13482,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13532,7 +13532,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R240">
         <v>17</v>
@@ -13579,7 +13579,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13626,7 +13626,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13673,7 +13673,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13720,7 +13720,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13767,7 +13767,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13817,7 +13817,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R246">
         <v>28</v>
@@ -13870,7 +13870,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13920,7 +13920,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R248">
         <v>16</v>
@@ -13970,7 +13970,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14017,7 +14017,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14064,7 +14064,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14111,7 +14111,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14161,7 +14161,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R253">
         <v>23</v>
@@ -14214,7 +14214,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R254">
         <v>14</v>
@@ -14267,7 +14267,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14314,7 +14314,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14361,7 +14361,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14408,7 +14408,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14455,7 +14455,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14502,7 +14502,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14549,7 +14549,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14599,7 +14599,7 @@
         <v>1</v>
       </c>
       <c r="Q262">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R262">
         <v>12</v>
@@ -14652,7 +14652,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14699,7 +14699,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14749,7 +14749,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R265">
         <v>17</v>
@@ -14802,7 +14802,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14852,7 +14852,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R267">
         <v>17</v>
@@ -14902,7 +14902,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14952,7 +14952,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R269">
         <v>13</v>
@@ -15002,7 +15002,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15043,10 +15043,10 @@
         <v>1</v>
       </c>
       <c r="P271" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q271">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15093,7 +15093,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15140,7 +15140,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15187,7 +15187,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15234,7 +15234,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15281,7 +15281,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15328,7 +15328,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15375,7 +15375,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15422,7 +15422,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15469,7 +15469,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15516,7 +15516,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15557,10 +15557,10 @@
         <v>1</v>
       </c>
       <c r="P282" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q282">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15607,7 +15607,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15654,7 +15654,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15701,7 +15701,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15751,7 +15751,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R286">
         <v>13</v>
@@ -15804,7 +15804,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R287">
         <v>24</v>
@@ -15857,7 +15857,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15907,7 +15907,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R289">
         <v>20</v>
@@ -15960,7 +15960,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16010,7 +16010,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R291">
         <v>18</v>
@@ -16063,7 +16063,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16110,7 +16110,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16160,7 +16160,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16210,7 +16210,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R295">
         <v>29</v>
@@ -16263,7 +16263,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16313,7 +16313,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R297">
         <v>6</v>
@@ -16363,7 +16363,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16410,7 +16410,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16457,7 +16457,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16507,7 +16507,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R301">
         <v>15</v>
@@ -16560,7 +16560,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R302">
         <v>21</v>
@@ -16613,7 +16613,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R303">
         <v>14</v>
@@ -16663,7 +16663,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16710,7 +16710,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16757,7 +16757,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16807,7 +16807,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R307">
         <v>12</v>
@@ -16857,7 +16857,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16907,7 +16907,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16957,7 +16957,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R310">
         <v>29</v>
@@ -17010,7 +17010,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R311">
         <v>19</v>
@@ -17063,7 +17063,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17113,7 +17113,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R313">
         <v>20</v>
@@ -17166,7 +17166,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R314">
         <v>17</v>
@@ -17219,7 +17219,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R315">
         <v>17</v>
@@ -17269,7 +17269,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17316,7 +17316,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17363,7 +17363,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17410,7 +17410,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17457,7 +17457,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17504,7 +17504,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17551,7 +17551,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17601,7 +17601,7 @@
         <v>1</v>
       </c>
       <c r="Q323">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R323">
         <v>17</v>
@@ -17654,7 +17654,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17704,7 +17704,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R325">
         <v>6</v>
@@ -17757,7 +17757,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17807,7 +17807,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R327">
         <v>17</v>
@@ -17857,7 +17857,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17907,7 +17907,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17957,7 +17957,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R330">
         <v>28</v>
@@ -18010,7 +18010,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18057,7 +18057,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18104,7 +18104,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18151,7 +18151,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18201,7 +18201,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R335">
         <v>6</v>
@@ -18251,7 +18251,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18298,7 +18298,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18345,7 +18345,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18395,7 +18395,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R339">
         <v>18</v>
@@ -18445,7 +18445,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18492,7 +18492,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18539,7 +18539,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18589,7 +18589,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R343">
         <v>0</v>
@@ -18642,7 +18642,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R344">
         <v>10</v>
@@ -18695,7 +18695,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18742,7 +18742,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18789,7 +18789,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18836,7 +18836,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18883,7 +18883,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18933,7 +18933,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R350">
         <v>12</v>
@@ -18983,7 +18983,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19030,7 +19030,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19074,7 +19074,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19121,7 +19121,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19168,7 +19168,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19218,7 +19218,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R356">
         <v>29</v>
@@ -19268,7 +19268,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19318,7 +19318,7 @@
         <v>1</v>
       </c>
       <c r="Q358">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R358">
         <v>5</v>
@@ -19371,7 +19371,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19421,7 +19421,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R360">
         <v>21</v>
@@ -19471,7 +19471,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19521,7 +19521,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R362">
         <v>22</v>
@@ -19571,7 +19571,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19618,7 +19618,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19665,7 +19665,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19712,7 +19712,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19759,7 +19759,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19806,7 +19806,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19853,7 +19853,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19903,7 +19903,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R370">
         <v>25</v>
@@ -19956,7 +19956,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20003,7 +20003,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20053,7 +20053,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20103,7 +20103,7 @@
         <v>1</v>
       </c>
       <c r="Q374">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R374">
         <v>34</v>
@@ -20156,7 +20156,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20206,7 +20206,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R376">
         <v>15</v>
@@ -20259,7 +20259,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20309,7 +20309,7 @@
         <v>1</v>
       </c>
       <c r="Q378">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R378">
         <v>19</v>
@@ -20362,7 +20362,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R379">
         <v>15</v>
@@ -20412,7 +20412,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20462,7 +20462,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R381">
         <v>23</v>
@@ -20515,7 +20515,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R382">
         <v>4</v>
@@ -20559,10 +20559,10 @@
         <v>1</v>
       </c>
       <c r="P383" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q383">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20609,7 +20609,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20656,7 +20656,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20697,10 +20697,10 @@
         <v>1</v>
       </c>
       <c r="P386" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q386">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20747,7 +20747,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20794,7 +20794,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20841,7 +20841,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20891,7 +20891,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R390">
         <v>7</v>
@@ -20944,7 +20944,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R391">
         <v>10</v>
@@ -20997,7 +20997,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21047,7 +21047,7 @@
         <v>1</v>
       </c>
       <c r="Q393">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R393">
         <v>15</v>
@@ -21097,7 +21097,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21147,7 +21147,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R395">
         <v>29</v>
@@ -21197,7 +21197,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21244,7 +21244,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21291,7 +21291,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21338,7 +21338,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21388,7 +21388,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R400">
         <v>19</v>
@@ -21441,7 +21441,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21491,7 +21491,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R402">
         <v>14</v>
@@ -21544,7 +21544,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21591,7 +21591,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21638,7 +21638,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21685,7 +21685,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21732,7 +21732,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21779,7 +21779,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21826,7 +21826,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21873,7 +21873,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21923,7 +21923,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R411">
         <v>21</v>
@@ -21976,7 +21976,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R412">
         <v>18</v>
@@ -22029,7 +22029,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22076,7 +22076,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22126,7 +22126,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22173,7 +22173,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22223,7 +22223,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22273,7 +22273,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R418">
         <v>22</v>
@@ -22326,7 +22326,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R419">
         <v>19</v>
@@ -22379,7 +22379,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R420">
         <v>13</v>
@@ -22429,7 +22429,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22479,7 +22479,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R422">
         <v>7</v>
@@ -22532,7 +22532,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R423">
         <v>8</v>
@@ -22582,7 +22582,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22626,7 +22626,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22676,7 +22676,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R426">
         <v>19</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22776,7 +22776,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R428">
         <v>23</v>
@@ -22829,7 +22829,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22879,7 +22879,7 @@
         <v>1</v>
       </c>
       <c r="Q430">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R430">
         <v>18</v>
@@ -22929,7 +22929,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22979,7 +22979,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R432">
         <v>14</v>
@@ -23029,7 +23029,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23079,7 +23079,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R434">
         <v>7</v>
@@ -23129,7 +23129,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23173,7 +23173,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23220,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23364,7 +23364,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23414,7 +23414,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R441">
         <v>18</v>
@@ -23467,7 +23467,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R442">
         <v>18</v>
@@ -23520,7 +23520,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23570,7 +23570,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R444">
         <v>13</v>
@@ -23623,7 +23623,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R445">
         <v>22</v>
@@ -23676,7 +23676,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R446">
         <v>20</v>
@@ -23726,7 +23726,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23776,7 +23776,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R448">
         <v>18</v>
@@ -23826,7 +23826,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23876,7 +23876,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R450">
         <v>19</v>
@@ -23926,7 +23926,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23973,7 +23973,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24064,7 +24064,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24111,7 +24111,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24158,7 +24158,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24208,7 +24208,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R457">
         <v>38</v>
@@ -24258,7 +24258,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24305,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24352,7 +24352,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24402,7 +24402,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R461">
         <v>13</v>
@@ -24455,7 +24455,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R462">
         <v>17</v>
@@ -24508,7 +24508,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R463">
         <v>14</v>
@@ -24561,7 +24561,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24608,7 +24608,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24705,7 +24705,7 @@
         <v>1</v>
       </c>
       <c r="Q467">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R467">
         <v>27</v>
@@ -24758,7 +24758,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24808,7 +24808,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R469">
         <v>4</v>
@@ -24861,7 +24861,7 @@
         <v>1</v>
       </c>
       <c r="Q470">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R470">
         <v>13</v>
@@ -24911,7 +24911,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24961,7 +24961,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R472">
         <v>5</v>
@@ -25011,7 +25011,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25058,7 +25058,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25105,7 +25105,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25155,7 +25155,7 @@
         <v>1</v>
       </c>
       <c r="Q476">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R476">
         <v>27</v>
@@ -25205,7 +25205,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25255,7 +25255,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25302,7 +25302,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25349,7 +25349,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25443,7 +25443,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25493,7 +25493,7 @@
         <v>1</v>
       </c>
       <c r="Q483">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R483">
         <v>9</v>
@@ -25546,7 +25546,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25737,7 +25737,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R488">
         <v>19</v>
@@ -25781,10 +25781,10 @@
         <v>1</v>
       </c>
       <c r="P489" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q489">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25825,7 +25825,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
